--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H2">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9392856666666667</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N2">
-        <v>2.817857</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O2">
-        <v>0.193119603916127</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P2">
-        <v>0.193119603916127</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q2">
-        <v>0.5673517117131112</v>
+        <v>0.7422690567234443</v>
       </c>
       <c r="R2">
-        <v>5.106165405418</v>
+        <v>6.680421510510999</v>
       </c>
       <c r="S2">
-        <v>0.001428246807149201</v>
+        <v>0.0007234880008917579</v>
       </c>
       <c r="T2">
-        <v>0.001428246807149201</v>
+        <v>0.000723488000891758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H3">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.006819333333334</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N3">
-        <v>6.020458000000001</v>
+        <v>6.020458</v>
       </c>
       <c r="O3">
-        <v>0.4126073339966075</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P3">
-        <v>0.4126073339966074</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q3">
-        <v>1.212168378876889</v>
+        <v>0.9716490749575555</v>
       </c>
       <c r="R3">
-        <v>10.909515409892</v>
+        <v>8.744841674618</v>
       </c>
       <c r="S3">
-        <v>0.003051503293487166</v>
+        <v>0.0009470641951753669</v>
       </c>
       <c r="T3">
-        <v>0.003051503293487166</v>
+        <v>0.0009470641951753671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H4">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.907411333333333</v>
+        <v>0.232148</v>
       </c>
       <c r="N4">
-        <v>5.722234</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O4">
-        <v>0.3921687876976707</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P4">
-        <v>0.3921687876976706</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q4">
-        <v>1.152123494812889</v>
+        <v>0.1123999483693333</v>
       </c>
       <c r="R4">
-        <v>10.369111453316</v>
+        <v>1.011599535324</v>
       </c>
       <c r="S4">
-        <v>0.002900346767156957</v>
+        <v>0.0001095559800175856</v>
       </c>
       <c r="T4">
-        <v>0.002900346767156956</v>
+        <v>0.0001095559800175856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,51 +726,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H5">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01023466666666667</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N5">
-        <v>0.030704</v>
+        <v>9.200548</v>
       </c>
       <c r="O5">
-        <v>0.002104274389594917</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P5">
-        <v>0.002104274389594917</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q5">
-        <v>0.006181991121777778</v>
+        <v>1.484887686834222</v>
       </c>
       <c r="R5">
-        <v>0.055637920096</v>
+        <v>13.363989181508</v>
       </c>
       <c r="S5">
-        <v>1.556249659464944E-05</v>
+        <v>0.001447316730187692</v>
       </c>
       <c r="T5">
-        <v>1.556249659464943E-05</v>
+        <v>0.001447316730187692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,25 +779,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.123796</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H6">
-        <v>3.371388</v>
+        <v>1.452521</v>
       </c>
       <c r="I6">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J6">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9392856666666667</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N6">
-        <v>2.817857</v>
+        <v>0.73249</v>
       </c>
       <c r="O6">
-        <v>0.193119603916127</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P6">
-        <v>0.193119603916127</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q6">
-        <v>1.055565475057334</v>
+        <v>0.1182174563655555</v>
       </c>
       <c r="R6">
-        <v>9.500089275516002</v>
+        <v>1.06395710729</v>
       </c>
       <c r="S6">
-        <v>0.002657272355688085</v>
+        <v>0.0001152262921399011</v>
       </c>
       <c r="T6">
-        <v>0.002657272355688084</v>
+        <v>0.0001152262921399011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.006819333333334</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N7">
-        <v>6.020458000000001</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O7">
-        <v>0.4126073339966075</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P7">
-        <v>0.4126073339966074</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q7">
-        <v>2.255255539522667</v>
+        <v>1.722850816345333</v>
       </c>
       <c r="R7">
-        <v>20.297299855704</v>
+        <v>15.505657347108</v>
       </c>
       <c r="S7">
-        <v>0.005677362837071285</v>
+        <v>0.00167925886396855</v>
       </c>
       <c r="T7">
-        <v>0.005677362837071284</v>
+        <v>0.00167925886396855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.907411333333333</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N8">
-        <v>5.722234</v>
+        <v>6.020458</v>
       </c>
       <c r="O8">
-        <v>0.3921687876976707</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P8">
-        <v>0.3921687876976706</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q8">
-        <v>2.143541226754667</v>
+        <v>2.255255539522667</v>
       </c>
       <c r="R8">
-        <v>19.291871040792</v>
+        <v>20.297299855704</v>
       </c>
       <c r="S8">
-        <v>0.005396134090899025</v>
+        <v>0.002198192565094681</v>
       </c>
       <c r="T8">
-        <v>0.005396134090899025</v>
+        <v>0.002198192565094681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01023466666666667</v>
+        <v>0.232148</v>
       </c>
       <c r="N9">
-        <v>0.030704</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O9">
-        <v>0.002104274389594917</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P9">
-        <v>0.002104274389594917</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q9">
-        <v>0.01150167746133334</v>
+        <v>0.2608869938080001</v>
       </c>
       <c r="R9">
-        <v>0.103515097152</v>
+        <v>2.347982944272001</v>
       </c>
       <c r="S9">
-        <v>2.89542338057066E-05</v>
+        <v>0.0002542859733935193</v>
       </c>
       <c r="T9">
-        <v>2.895423380570659E-05</v>
+        <v>0.0002542859733935193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.13359466666667</v>
+        <v>1.123796</v>
       </c>
       <c r="H10">
-        <v>84.400784</v>
+        <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J10">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9392856666666667</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N10">
-        <v>2.817857</v>
+        <v>9.200548</v>
       </c>
       <c r="O10">
-        <v>0.193119603916127</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P10">
-        <v>0.193119603916127</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q10">
-        <v>26.42548222220978</v>
+        <v>3.446513013402667</v>
       </c>
       <c r="R10">
-        <v>237.829339999888</v>
+        <v>31.018617120624</v>
       </c>
       <c r="S10">
-        <v>0.06652330438430737</v>
+        <v>0.003359308578914883</v>
       </c>
       <c r="T10">
-        <v>0.06652330438430736</v>
+        <v>0.003359308578914883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.13359466666667</v>
+        <v>1.123796</v>
       </c>
       <c r="H11">
-        <v>84.400784</v>
+        <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J11">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.006819333333334</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N11">
-        <v>6.020458000000001</v>
+        <v>0.73249</v>
       </c>
       <c r="O11">
-        <v>0.4126073339966075</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P11">
-        <v>0.4126073339966074</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q11">
-        <v>56.45904169323023</v>
+        <v>0.2743897773466667</v>
       </c>
       <c r="R11">
-        <v>508.131375239072</v>
+        <v>2.46950799612</v>
       </c>
       <c r="S11">
-        <v>0.1421295545043408</v>
+        <v>0.0002674471065168468</v>
       </c>
       <c r="T11">
-        <v>0.1421295545043408</v>
+        <v>0.0002674471065168469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H12">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.907411333333333</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N12">
-        <v>5.722234</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O12">
-        <v>0.3921687876976707</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P12">
-        <v>0.3921687876976706</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q12">
-        <v>53.66233731460623</v>
+        <v>131.7705602702405</v>
       </c>
       <c r="R12">
-        <v>482.9610358314561</v>
+        <v>1185.935042432165</v>
       </c>
       <c r="S12">
-        <v>0.1350891525511169</v>
+        <v>0.1284364724122173</v>
       </c>
       <c r="T12">
-        <v>0.1350891525511169</v>
+        <v>0.1284364724122173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H13">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01023466666666667</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N13">
-        <v>0.030704</v>
+        <v>6.020458</v>
       </c>
       <c r="O13">
-        <v>0.002104274389594917</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P13">
-        <v>0.002104274389594917</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q13">
-        <v>0.2879379635484445</v>
+        <v>172.4910149944744</v>
       </c>
       <c r="R13">
-        <v>2.591441671936</v>
+        <v>1552.41913495027</v>
       </c>
       <c r="S13">
-        <v>0.0007248528004848271</v>
+        <v>0.1681266091853791</v>
       </c>
       <c r="T13">
-        <v>0.000724852800484827</v>
+        <v>0.1681266091853791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.288857333333333</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H14">
-        <v>6.866572</v>
+        <v>257.857315</v>
       </c>
       <c r="I14">
-        <v>0.0280246985018516</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J14">
-        <v>0.02802469850185161</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.9392856666666667</v>
+        <v>0.232148</v>
       </c>
       <c r="N14">
-        <v>2.817857</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O14">
-        <v>0.193119603916127</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P14">
-        <v>0.193119603916127</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q14">
-        <v>2.149890886244889</v>
+        <v>19.95368665420667</v>
       </c>
       <c r="R14">
-        <v>19.349017976204</v>
+        <v>179.58317988786</v>
       </c>
       <c r="S14">
-        <v>0.00541211867454646</v>
+        <v>0.01944881406157176</v>
       </c>
       <c r="T14">
-        <v>0.005412118674546459</v>
+        <v>0.01944881406157176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.288857333333333</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H15">
-        <v>6.866572</v>
+        <v>257.857315</v>
       </c>
       <c r="I15">
-        <v>0.0280246985018516</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J15">
-        <v>0.02802469850185161</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.006819333333334</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N15">
-        <v>6.020458000000001</v>
+        <v>9.200548</v>
       </c>
       <c r="O15">
-        <v>0.4126073339966075</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P15">
-        <v>0.4126073339966074</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q15">
-        <v>4.593323147775111</v>
+        <v>263.6031782009578</v>
       </c>
       <c r="R15">
-        <v>41.33990832997601</v>
+        <v>2372.42860380862</v>
       </c>
       <c r="S15">
-        <v>0.01156319613490771</v>
+        <v>0.2569334322882614</v>
       </c>
       <c r="T15">
-        <v>0.01156319613490771</v>
+        <v>0.2569334322882614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.288857333333333</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H16">
-        <v>6.866572</v>
+        <v>257.857315</v>
       </c>
       <c r="I16">
-        <v>0.0280246985018516</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J16">
-        <v>0.02802469850185161</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.907411333333333</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N16">
-        <v>5.722234</v>
+        <v>0.73249</v>
       </c>
       <c r="O16">
-        <v>0.3921687876976707</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P16">
-        <v>0.3921687876976706</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q16">
-        <v>4.36579241798311</v>
+        <v>20.98643385159444</v>
       </c>
       <c r="R16">
-        <v>39.292131761848</v>
+        <v>188.87790466435</v>
       </c>
       <c r="S16">
-        <v>0.01099041203706387</v>
+        <v>0.0204554304609713</v>
       </c>
       <c r="T16">
-        <v>0.01099041203706387</v>
+        <v>0.0204554304609713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H17">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I17">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J17">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01023466666666667</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N17">
-        <v>0.030704</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O17">
-        <v>0.002104274389594917</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P17">
-        <v>0.002104274389594917</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q17">
-        <v>0.02342569185422222</v>
+        <v>2.977032316302555</v>
       </c>
       <c r="R17">
-        <v>0.210831226688</v>
+        <v>26.793290846723</v>
       </c>
       <c r="S17">
-        <v>5.897165533356538E-05</v>
+        <v>0.002901706786242039</v>
       </c>
       <c r="T17">
-        <v>5.897165533356537E-05</v>
+        <v>0.002901706786242039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.52258933333334</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H18">
-        <v>148.567768</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I18">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J18">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9392856666666667</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N18">
-        <v>2.817857</v>
+        <v>6.020458</v>
       </c>
       <c r="O18">
-        <v>0.193119603916127</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P18">
-        <v>0.193119603916127</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q18">
-        <v>46.51585833701956</v>
+        <v>3.897011023230444</v>
       </c>
       <c r="R18">
-        <v>418.642725033176</v>
+        <v>35.073099209074</v>
       </c>
       <c r="S18">
-        <v>0.1170986616944359</v>
+        <v>0.003798407988466922</v>
       </c>
       <c r="T18">
-        <v>0.1170986616944359</v>
+        <v>0.003798407988466923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.52258933333334</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H19">
-        <v>148.567768</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I19">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J19">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.006819333333334</v>
+        <v>0.232148</v>
       </c>
       <c r="N19">
-        <v>6.020458000000001</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O19">
-        <v>0.4126073339966075</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P19">
-        <v>0.4126073339966074</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q19">
-        <v>99.38288971086045</v>
+        <v>0.4508045642146667</v>
       </c>
       <c r="R19">
-        <v>894.4460073977441</v>
+        <v>4.057241077932001</v>
       </c>
       <c r="S19">
-        <v>0.2501857172268004</v>
+        <v>0.0004393982074320356</v>
       </c>
       <c r="T19">
-        <v>0.2501857172268004</v>
+        <v>0.0004393982074320356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.52258933333334</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H20">
-        <v>148.567768</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I20">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J20">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.907411333333333</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N20">
-        <v>5.722234</v>
+        <v>9.200548</v>
       </c>
       <c r="O20">
-        <v>0.3921687876976707</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P20">
-        <v>0.3921687876976706</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q20">
-        <v>94.45994815041244</v>
+        <v>5.955466673093778</v>
       </c>
       <c r="R20">
-        <v>850.1395333537121</v>
+        <v>53.59920005784401</v>
       </c>
       <c r="S20">
-        <v>0.2377927422514339</v>
+        <v>0.005804780138234229</v>
       </c>
       <c r="T20">
-        <v>0.2377927422514338</v>
+        <v>0.005804780138234229</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.52258933333334</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H21">
-        <v>148.567768</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I21">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J21">
-        <v>0.6063530543760464</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.01023466666666667</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N21">
-        <v>0.030704</v>
+        <v>0.73249</v>
       </c>
       <c r="O21">
-        <v>0.002104274389594917</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P21">
-        <v>0.002104274389594917</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q21">
-        <v>0.506847194296889</v>
+        <v>0.4741369517744445</v>
       </c>
       <c r="R21">
-        <v>4.561624748672</v>
+        <v>4.267232565970001</v>
       </c>
       <c r="S21">
-        <v>0.001275933203376169</v>
+        <v>0.0004621402337616401</v>
       </c>
       <c r="T21">
-        <v>0.001275933203376168</v>
+        <v>0.0004621402337616402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H22">
+        <v>166.034723</v>
+      </c>
+      <c r="I22">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J22">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.533063666666666</v>
+      </c>
+      <c r="N22">
+        <v>4.599190999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.2164413688258592</v>
+      </c>
+      <c r="P22">
+        <v>0.2164413688258593</v>
+      </c>
+      <c r="Q22">
+        <v>84.84726707878809</v>
+      </c>
+      <c r="R22">
+        <v>763.6254037090928</v>
+      </c>
+      <c r="S22">
+        <v>0.0827004427625396</v>
+      </c>
+      <c r="T22">
+        <v>0.0827004427625396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H23">
+        <v>166.034723</v>
+      </c>
+      <c r="I23">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J23">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.006819333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.020458</v>
+      </c>
+      <c r="O23">
+        <v>0.2833272570064159</v>
+      </c>
+      <c r="P23">
+        <v>0.2833272570064159</v>
+      </c>
+      <c r="Q23">
+        <v>111.0672307070149</v>
+      </c>
+      <c r="R23">
+        <v>999.6050763631339</v>
+      </c>
+      <c r="S23">
+        <v>0.1082569830722998</v>
+      </c>
+      <c r="T23">
+        <v>0.1082569830722998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H24">
+        <v>166.034723</v>
+      </c>
+      <c r="I24">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J24">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.232148</v>
+      </c>
+      <c r="N24">
+        <v>0.6964440000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.03277517560600478</v>
+      </c>
+      <c r="P24">
+        <v>0.03277517560600478</v>
+      </c>
+      <c r="Q24">
+        <v>12.84820962500133</v>
+      </c>
+      <c r="R24">
+        <v>115.633886625012</v>
+      </c>
+      <c r="S24">
+        <v>0.01252312138358989</v>
+      </c>
+      <c r="T24">
+        <v>0.01252312138358988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H25">
+        <v>166.034723</v>
+      </c>
+      <c r="I25">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J25">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.066849333333333</v>
+      </c>
+      <c r="N25">
+        <v>9.200548</v>
+      </c>
+      <c r="O25">
+        <v>0.4329846712319671</v>
+      </c>
+      <c r="P25">
+        <v>0.4329846712319671</v>
+      </c>
+      <c r="Q25">
+        <v>169.7344931809116</v>
+      </c>
+      <c r="R25">
+        <v>1527.610438628204</v>
+      </c>
+      <c r="S25">
+        <v>0.1654398334963689</v>
+      </c>
+      <c r="T25">
+        <v>0.1654398334963689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H26">
+        <v>166.034723</v>
+      </c>
+      <c r="I26">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J26">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2441633333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.73249</v>
+      </c>
+      <c r="O26">
+        <v>0.03447152732975291</v>
+      </c>
+      <c r="P26">
+        <v>0.03447152732975292</v>
+      </c>
+      <c r="Q26">
+        <v>13.51319713891889</v>
+      </c>
+      <c r="R26">
+        <v>121.61877425027</v>
+      </c>
+      <c r="S26">
+        <v>0.01317128323636323</v>
+      </c>
+      <c r="T26">
+        <v>0.01317128323636323</v>
       </c>
     </row>
   </sheetData>
